--- a/parroquias-nombres.xlsx
+++ b/parroquias-nombres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIVTUS\Desktop\Vinculacion\codigo\Vinculacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F3F6A-DF1C-45E4-929E-F08D4FAAD064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88016582-F202-4212-913A-790D8D7EF164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7516A249-CAE4-466B-BEA1-572C2D12F449}"/>
   </bookViews>
@@ -8339,7 +8339,7 @@
         <v>64</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1">
@@ -8379,7 +8379,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1">
